--- a/MMORPG-Demo/MMOServer/src/main/resources/static/shop.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MMORPG-Demo\MMOServer\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8472E7A-6C1A-46B2-B001-F731CC90F3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B9006A-1148-409E-A1EC-8E9FC1892C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2364" windowWidth="21540" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,11,12,14,15</t>
+    <t>[{"itemId":1,"num":2},{"itemId":11,"num":3},{"itemId":12,"num":2},{"itemId":14,"num":2}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,14 +372,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,5 +407,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>